--- a/npbenchmark-main/SDK.PCP/Rank.xlsx
+++ b/npbenchmark-main/SDK.PCP/Rank.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\SDK.PCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{684B49D0-3092-4A15-8E36-BB437B4EFC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A287EC-4582-46FD-BAAF-65CD090D0A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rank" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="23">
   <si>
     <t>dynamic</t>
-  </si>
-  <si>
-    <t>static</t>
   </si>
   <si>
     <t>initial_f = 378</t>
@@ -87,12 +84,20 @@
   </si>
   <si>
     <t>initial_f = 42</t>
+  </si>
+  <si>
+    <t>color_num[MaxColor] as vector</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>static (normal)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1037,223 +1042,287 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
